--- a/Jobs.xlsx
+++ b/Jobs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Opus Recruitment Solutions Ltd </t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t xml:space="preserve">Roc Search </t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,6 +400,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="mailto:haashim.p.a4lg7fszk90@opusrs.aptrack.co.uk"/>
